--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1868766666666667</v>
+        <v>0.362096</v>
       </c>
       <c r="H2">
-        <v>0.56063</v>
+        <v>1.086288</v>
       </c>
       <c r="I2">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="J2">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N2">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O2">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P2">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q2">
-        <v>4.384858409026667</v>
+        <v>2.978863974202667</v>
       </c>
       <c r="R2">
-        <v>39.46372568124</v>
+        <v>26.809775767824</v>
       </c>
       <c r="S2">
-        <v>0.001697722620678771</v>
+        <v>0.0006499202622682976</v>
       </c>
       <c r="T2">
-        <v>0.00169772262067877</v>
+        <v>0.0006499202622682976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1868766666666667</v>
+        <v>0.362096</v>
       </c>
       <c r="H3">
-        <v>0.56063</v>
+        <v>1.086288</v>
       </c>
       <c r="I3">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="J3">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>263.722283</v>
       </c>
       <c r="O3">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P3">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q3">
-        <v>16.42784705758778</v>
+        <v>31.83092792838933</v>
       </c>
       <c r="R3">
-        <v>147.85062351829</v>
+        <v>286.478351355504</v>
       </c>
       <c r="S3">
-        <v>0.006360508129818689</v>
+        <v>0.00694478338273213</v>
       </c>
       <c r="T3">
-        <v>0.006360508129818686</v>
+        <v>0.00694478338273213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1868766666666667</v>
+        <v>0.362096</v>
       </c>
       <c r="H4">
-        <v>0.56063</v>
+        <v>1.086288</v>
       </c>
       <c r="I4">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="J4">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N4">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O4">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P4">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q4">
-        <v>11.6323604999</v>
+        <v>13.19118781676267</v>
       </c>
       <c r="R4">
-        <v>104.6912444991</v>
+        <v>118.720690350864</v>
       </c>
       <c r="S4">
-        <v>0.004503799144783364</v>
+        <v>0.002878016693526767</v>
       </c>
       <c r="T4">
-        <v>0.004503799144783363</v>
+        <v>0.002878016693526767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1868766666666667</v>
+        <v>0.362096</v>
       </c>
       <c r="H5">
-        <v>0.56063</v>
+        <v>1.086288</v>
       </c>
       <c r="I5">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="J5">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N5">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O5">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P5">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q5">
-        <v>0.01195094971</v>
+        <v>0.05973509781866666</v>
       </c>
       <c r="R5">
-        <v>0.10755854739</v>
+        <v>0.5376158803679999</v>
       </c>
       <c r="S5">
-        <v>4.627150016861126E-06</v>
+        <v>1.303283761096267E-05</v>
       </c>
       <c r="T5">
-        <v>4.627150016861125E-06</v>
+        <v>1.303283761096267E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.480822</v>
       </c>
       <c r="I6">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="J6">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N6">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O6">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P6">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q6">
-        <v>74.15240367298399</v>
+        <v>25.99870301580066</v>
       </c>
       <c r="R6">
-        <v>667.371633056856</v>
+        <v>233.988327142206</v>
       </c>
       <c r="S6">
-        <v>0.02871021167620168</v>
+        <v>0.00567232476171977</v>
       </c>
       <c r="T6">
-        <v>0.02871021167620167</v>
+        <v>0.00567232476171977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.480822</v>
       </c>
       <c r="I7">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="J7">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>263.722283</v>
       </c>
       <c r="O7">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P7">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q7">
         <v>277.8115580618473</v>
@@ -883,10 +883,10 @@
         <v>2500.304022556626</v>
       </c>
       <c r="S7">
-        <v>0.1075626445398282</v>
+        <v>0.06061215357275529</v>
       </c>
       <c r="T7">
-        <v>0.1075626445398282</v>
+        <v>0.06061215357275529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9.480822</v>
       </c>
       <c r="I8">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="J8">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N8">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O8">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P8">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q8">
-        <v>196.71501585606</v>
+        <v>115.1290483364407</v>
       </c>
       <c r="R8">
-        <v>1770.43514270454</v>
+        <v>1036.161435027966</v>
       </c>
       <c r="S8">
-        <v>0.07616381216746038</v>
+        <v>0.02511853576984725</v>
       </c>
       <c r="T8">
-        <v>0.07616381216746035</v>
+        <v>0.02511853576984725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>9.480822</v>
       </c>
       <c r="I9">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="J9">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N9">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O9">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P9">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q9">
-        <v>0.202102682574</v>
+        <v>0.5213514552046666</v>
       </c>
       <c r="R9">
-        <v>1.818924143166</v>
+        <v>4.692163096842</v>
       </c>
       <c r="S9">
-        <v>7.824980054074406E-05</v>
+        <v>0.0001137470114227924</v>
       </c>
       <c r="T9">
-        <v>7.824980054074404E-05</v>
+        <v>0.0001137470114227924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.122442666666667</v>
+        <v>21.49951033333333</v>
       </c>
       <c r="H10">
-        <v>9.367328000000001</v>
+        <v>64.498531</v>
       </c>
       <c r="I10">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953967</v>
       </c>
       <c r="J10">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N10">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O10">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P10">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q10">
-        <v>73.26473244548266</v>
+        <v>176.8705448139848</v>
       </c>
       <c r="R10">
-        <v>659.3825920093441</v>
+        <v>1591.834903325863</v>
       </c>
       <c r="S10">
-        <v>0.02836652451869795</v>
+        <v>0.03858912386350574</v>
       </c>
       <c r="T10">
-        <v>0.02836652451869794</v>
+        <v>0.03858912386350574</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.122442666666667</v>
+        <v>21.49951033333333</v>
       </c>
       <c r="H11">
-        <v>9.367328000000001</v>
+        <v>64.498531</v>
       </c>
       <c r="I11">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953967</v>
       </c>
       <c r="J11">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>263.722283</v>
       </c>
       <c r="O11">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P11">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q11">
-        <v>274.4859028633138</v>
+        <v>1889.966649496253</v>
       </c>
       <c r="R11">
-        <v>2470.373125769824</v>
+        <v>17009.69984546627</v>
       </c>
       <c r="S11">
-        <v>0.1062750225615437</v>
+        <v>0.412347670506747</v>
       </c>
       <c r="T11">
-        <v>0.1062750225615437</v>
+        <v>0.412347670506747</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.122442666666667</v>
+        <v>21.49951033333333</v>
       </c>
       <c r="H12">
-        <v>9.367328000000001</v>
+        <v>64.498531</v>
       </c>
       <c r="I12">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953967</v>
       </c>
       <c r="J12">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953966</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N12">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O12">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P12">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q12">
-        <v>194.36015949344</v>
+        <v>783.2289745687048</v>
       </c>
       <c r="R12">
-        <v>1749.24143544096</v>
+        <v>7049.060771118344</v>
       </c>
       <c r="S12">
-        <v>0.07525206256408909</v>
+        <v>0.1708827207204293</v>
       </c>
       <c r="T12">
-        <v>0.07525206256408908</v>
+        <v>0.1708827207204293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.122442666666667</v>
+        <v>21.49951033333333</v>
       </c>
       <c r="H13">
-        <v>9.367328000000001</v>
+        <v>64.498531</v>
       </c>
       <c r="I13">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953967</v>
       </c>
       <c r="J13">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953966</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N13">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O13">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P13">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q13">
-        <v>0.199683330976</v>
+        <v>3.546781386193445</v>
       </c>
       <c r="R13">
-        <v>1.797149978784</v>
+        <v>31.921032475741</v>
       </c>
       <c r="S13">
-        <v>7.731307977301198E-05</v>
+        <v>0.0007738269047146262</v>
       </c>
       <c r="T13">
-        <v>7.731307977301196E-05</v>
+        <v>0.0007738269047146261</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.401240333333334</v>
+        <v>9.510307666666666</v>
       </c>
       <c r="H14">
-        <v>25.203721</v>
+        <v>28.530923</v>
       </c>
       <c r="I14">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="J14">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N14">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O14">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P14">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q14">
-        <v>197.1259974771453</v>
+        <v>78.23867949885322</v>
       </c>
       <c r="R14">
-        <v>1774.133977294308</v>
+        <v>704.148115489679</v>
       </c>
       <c r="S14">
-        <v>0.07632293538871729</v>
+        <v>0.01706989763204289</v>
       </c>
       <c r="T14">
-        <v>0.07632293538871726</v>
+        <v>0.01706989763204289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.401240333333334</v>
+        <v>9.510307666666666</v>
       </c>
       <c r="H15">
-        <v>25.203721</v>
+        <v>28.530923</v>
       </c>
       <c r="I15">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="J15">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>263.722283</v>
       </c>
       <c r="O15">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P15">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q15">
-        <v>738.5314269127825</v>
+        <v>836.0266832952453</v>
       </c>
       <c r="R15">
-        <v>6646.782842215043</v>
+        <v>7524.240149657208</v>
       </c>
       <c r="S15">
-        <v>0.2859434427736333</v>
+        <v>0.1824019780614441</v>
       </c>
       <c r="T15">
-        <v>0.2859434427736332</v>
+        <v>0.1824019780614441</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.401240333333334</v>
+        <v>9.510307666666666</v>
       </c>
       <c r="H16">
-        <v>25.203721</v>
+        <v>28.530923</v>
       </c>
       <c r="I16">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="J16">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N16">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O16">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P16">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q16">
-        <v>522.9452020243301</v>
+        <v>346.4613103326132</v>
       </c>
       <c r="R16">
-        <v>4706.506818218971</v>
+        <v>3118.151792993519</v>
       </c>
       <c r="S16">
-        <v>0.2024731054084842</v>
+        <v>0.0755899657141815</v>
       </c>
       <c r="T16">
-        <v>0.2024731054084842</v>
+        <v>0.0755899657141815</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.401240333333334</v>
+        <v>9.510307666666666</v>
       </c>
       <c r="H17">
-        <v>25.203721</v>
+        <v>28.530923</v>
       </c>
       <c r="I17">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="J17">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N17">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O17">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P17">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q17">
-        <v>0.537267720557</v>
+        <v>1.568918625872555</v>
       </c>
       <c r="R17">
-        <v>4.835409485013</v>
+        <v>14.120267632853</v>
       </c>
       <c r="S17">
-        <v>0.0002080184757328597</v>
+        <v>0.0003423023050515884</v>
       </c>
       <c r="T17">
-        <v>0.0002080184757328597</v>
+        <v>0.0003423023050515884</v>
       </c>
     </row>
   </sheetData>
